--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2273.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2273.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.151854776796609</v>
+        <v>1.21466851234436</v>
       </c>
       <c r="B1">
-        <v>2.570636849039964</v>
+        <v>2.599881649017334</v>
       </c>
       <c r="C1">
-        <v>5.072574508645882</v>
+        <v>4.383058547973633</v>
       </c>
       <c r="D1">
-        <v>2.802233985005136</v>
+        <v>2.129381418228149</v>
       </c>
       <c r="E1">
-        <v>1.2211084747242</v>
+        <v>1.166103959083557</v>
       </c>
     </row>
   </sheetData>
